--- a/src/views/FileMau/FileMauKhongTuDong.xlsx
+++ b/src/views/FileMau/FileMauKhongTuDong.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyap\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLVB_22102023_FE\fe-_qlvb\src\views\FileMau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46ED886-6797-4143-9A6D-28B325A5E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -277,12 +276,18 @@
   </si>
   <si>
     <t>Nguyễn Việt Trinh</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>5,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,48 +776,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="18"/>
-    <col min="13" max="13" width="11.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="18"/>
+    <col min="13" max="13" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="8.88671875" style="18"/>
-    <col min="25" max="25" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="8.85546875" style="18"/>
+    <col min="25" max="25" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="13.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="18"/>
+    <col min="27" max="30" width="13.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1068,8 +1073,8 @@
       <c r="M3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="16">
-        <v>4.2</v>
+      <c r="N3" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -1090,8 +1095,8 @@
       <c r="Y3" s="17">
         <v>5</v>
       </c>
-      <c r="Z3" s="17">
-        <v>5</v>
+      <c r="Z3" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="AA3" s="17">
         <v>6</v>
@@ -1106,7 +1111,7 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1144,7 +1149,7 @@
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1182,7 +1187,7 @@
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1220,7 +1225,7 @@
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>

--- a/src/views/FileMau/FileMauKhongTuDong.xlsx
+++ b/src/views/FileMau/FileMauKhongTuDong.xlsx
@@ -281,7 +281,7 @@
     <t>4,2</t>
   </si>
   <si>
-    <t>5,5</t>
+    <t>5.5</t>
   </si>
 </sst>
 </file>

--- a/src/views/FileMau/FileMauKhongTuDong.xlsx
+++ b/src/views/FileMau/FileMauKhongTuDong.xlsx
@@ -53,9 +53,6 @@
     <t>SoVaoSoCapBang</t>
   </si>
   <si>
-    <t>HoiDongThi</t>
-  </si>
-  <si>
     <t>Lop</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>5.5</t>
+  </si>
+  <si>
+    <t>HoiDong</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -849,192 +849,192 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="Q2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AG2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AH2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AI2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -1042,51 +1042,51 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
       <c r="K3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="N3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA3" s="17">
         <v>6</v>

--- a/src/views/FileMau/FileMauKhongTuDong.xlsx
+++ b/src/views/FileMau/FileMauKhongTuDong.xlsx
@@ -269,19 +269,19 @@
     <t>13/01/2001</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t>Nguyễn Việt Trinh</t>
   </si>
   <si>
-    <t>4,2</t>
-  </si>
-  <si>
     <t>5.5</t>
   </si>
   <si>
     <t>HoiDong</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>056201008349</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -890,10 +890,10 @@
       <c r="X1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="6" t="s">
@@ -1000,10 +1000,10 @@
       <c r="X2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="11" t="s">
@@ -1042,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>66</v>
@@ -1074,7 +1074,7 @@
         <v>71</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="17">
         <v>6</v>

--- a/src/views/FileMau/FileMauKhongTuDong.xlsx
+++ b/src/views/FileMau/FileMauKhongTuDong.xlsx
@@ -233,9 +233,6 @@
     <t>Kinh</t>
   </si>
   <si>
-    <t>Trường THCS Lý Thường Kiệt</t>
-  </si>
-  <si>
     <t>9A1</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>056201008349</t>
+  </si>
+  <si>
+    <t>Trường THCS Phú Ninh</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -864,10 +864,10 @@
         <v>12</v>
       </c>
       <c r="P1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>13</v>
@@ -950,7 +950,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>38</v>
@@ -1042,16 +1042,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>67</v>
@@ -1060,33 +1060,33 @@
         <v>68</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
       <c r="K3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="N3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA3" s="17">
         <v>6</v>
